--- a/Code/Results/Cases/Case_7_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_13/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.010621177112938</v>
+        <v>1.014764219896985</v>
       </c>
       <c r="D2">
-        <v>1.030207637475475</v>
+        <v>1.034048433192709</v>
       </c>
       <c r="E2">
-        <v>1.015273079892114</v>
+        <v>1.019158895235968</v>
       </c>
       <c r="F2">
-        <v>1.034350929978139</v>
+        <v>1.038258828650855</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047885301483544</v>
+        <v>1.050082450399141</v>
       </c>
       <c r="J2">
-        <v>1.032488785902164</v>
+        <v>1.036512128098094</v>
       </c>
       <c r="K2">
-        <v>1.041261581243767</v>
+        <v>1.045052955089952</v>
       </c>
       <c r="L2">
-        <v>1.026523659404904</v>
+        <v>1.030357616104875</v>
       </c>
       <c r="M2">
-        <v>1.045351578951337</v>
+        <v>1.04920969738516</v>
       </c>
       <c r="N2">
-        <v>1.033955038406286</v>
+        <v>1.037984094209609</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016758815502717</v>
+        <v>1.018784967257583</v>
       </c>
       <c r="D3">
-        <v>1.034961391834949</v>
+        <v>1.037130537228974</v>
       </c>
       <c r="E3">
-        <v>1.020326749048644</v>
+        <v>1.022349875265448</v>
       </c>
       <c r="F3">
-        <v>1.039635744715474</v>
+        <v>1.041841203224867</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049735568460888</v>
+        <v>1.051282060122131</v>
       </c>
       <c r="J3">
-        <v>1.036802815202617</v>
+        <v>1.038776312709113</v>
       </c>
       <c r="K3">
-        <v>1.045165655017132</v>
+        <v>1.047309385554514</v>
       </c>
       <c r="L3">
-        <v>1.030705987188368</v>
+        <v>1.032704553928207</v>
       </c>
       <c r="M3">
-        <v>1.049785403857896</v>
+        <v>1.051965309235417</v>
       </c>
       <c r="N3">
-        <v>1.03827519412315</v>
+        <v>1.040251494222469</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020631386795774</v>
+        <v>1.021339371262871</v>
       </c>
       <c r="D4">
-        <v>1.037963455025792</v>
+        <v>1.039091649419453</v>
       </c>
       <c r="E4">
-        <v>1.02352129624671</v>
+        <v>1.024382770809663</v>
       </c>
       <c r="F4">
-        <v>1.042975435599722</v>
+        <v>1.044122004443985</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050892358138534</v>
+        <v>1.052036467063035</v>
       </c>
       <c r="J4">
-        <v>1.039521668579837</v>
+        <v>1.040212528928486</v>
       </c>
       <c r="K4">
-        <v>1.047624307671097</v>
+        <v>1.048740099609504</v>
       </c>
       <c r="L4">
-        <v>1.033343892127788</v>
+        <v>1.034195561003177</v>
       </c>
       <c r="M4">
-        <v>1.052581442388548</v>
+        <v>1.053715555180822</v>
       </c>
       <c r="N4">
-        <v>1.040997908584023</v>
+        <v>1.041689750033609</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022236835831261</v>
+        <v>1.022402275619065</v>
       </c>
       <c r="D5">
-        <v>1.039208573941951</v>
+        <v>1.039908368322022</v>
       </c>
       <c r="E5">
-        <v>1.024847006953854</v>
+        <v>1.025229991652735</v>
       </c>
       <c r="F5">
-        <v>1.044361139280164</v>
+        <v>1.045072200252683</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051369321409154</v>
+        <v>1.052348499609453</v>
       </c>
       <c r="J5">
-        <v>1.040648023453776</v>
+        <v>1.040809583940983</v>
       </c>
       <c r="K5">
-        <v>1.0486424102733</v>
+        <v>1.049334721042105</v>
       </c>
       <c r="L5">
-        <v>1.034437200075104</v>
+        <v>1.034815945275158</v>
       </c>
       <c r="M5">
-        <v>1.053740161423043</v>
+        <v>1.054443709875726</v>
       </c>
       <c r="N5">
-        <v>1.042125863011077</v>
+        <v>1.042287652932707</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022505104169691</v>
+        <v>1.022580108829001</v>
       </c>
       <c r="D6">
-        <v>1.039416661972179</v>
+        <v>1.040045051778491</v>
       </c>
       <c r="E6">
-        <v>1.025068608829605</v>
+        <v>1.025371815675256</v>
       </c>
       <c r="F6">
-        <v>1.044592755043946</v>
+        <v>1.045231242286477</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051448866600811</v>
+        <v>1.052400593934452</v>
       </c>
       <c r="J6">
-        <v>1.04083618737065</v>
+        <v>1.040909442515347</v>
       </c>
       <c r="K6">
-        <v>1.04881246263362</v>
+        <v>1.049434163818875</v>
       </c>
       <c r="L6">
-        <v>1.03461987188248</v>
+        <v>1.034919738172262</v>
       </c>
       <c r="M6">
-        <v>1.05393375433144</v>
+        <v>1.054565527625685</v>
       </c>
       <c r="N6">
-        <v>1.042314294142295</v>
+        <v>1.042387653317701</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.020652926213436</v>
+        <v>1.021353616477738</v>
       </c>
       <c r="D7">
-        <v>1.037980158002583</v>
+        <v>1.039102592556875</v>
       </c>
       <c r="E7">
-        <v>1.023539077322132</v>
+        <v>1.024394120235055</v>
       </c>
       <c r="F7">
-        <v>1.042994022290574</v>
+        <v>1.044134734668431</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05089876766198</v>
+        <v>1.052040656441014</v>
       </c>
       <c r="J7">
-        <v>1.039536783482222</v>
+        <v>1.040220533019331</v>
       </c>
       <c r="K7">
-        <v>1.047637971735291</v>
+        <v>1.048748071661735</v>
       </c>
       <c r="L7">
-        <v>1.033358561639108</v>
+        <v>1.034203875664181</v>
       </c>
       <c r="M7">
-        <v>1.052596990080722</v>
+        <v>1.053725314603258</v>
       </c>
       <c r="N7">
-        <v>1.041013044951302</v>
+        <v>1.041697765491181</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.012716579705417</v>
+        <v>1.016133059629543</v>
       </c>
       <c r="D8">
-        <v>1.031829967663094</v>
+        <v>1.035097056932956</v>
       </c>
       <c r="E8">
-        <v>1.016997126213646</v>
+        <v>1.020244041123843</v>
       </c>
       <c r="F8">
-        <v>1.036154029600332</v>
+        <v>1.03947737918185</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048519193143397</v>
+        <v>1.050492446215171</v>
       </c>
       <c r="J8">
-        <v>1.033962223660029</v>
+        <v>1.03728340660906</v>
       </c>
       <c r="K8">
-        <v>1.042595375101076</v>
+        <v>1.045821710671662</v>
       </c>
       <c r="L8">
-        <v>1.02795167939907</v>
+        <v>1.031156602218223</v>
       </c>
       <c r="M8">
-        <v>1.046865567172848</v>
+        <v>1.050147892931241</v>
       </c>
       <c r="N8">
-        <v>1.03543056861475</v>
+        <v>1.038756468024514</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9979210214772066</v>
+        <v>1.006554912571655</v>
       </c>
       <c r="D9">
-        <v>1.020389818985646</v>
+        <v>1.027774099036035</v>
       </c>
       <c r="E9">
-        <v>1.004852101299349</v>
+        <v>1.012676358840375</v>
       </c>
       <c r="F9">
-        <v>1.023448332514384</v>
+        <v>1.030973079991466</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043999972387545</v>
+        <v>1.047592283043617</v>
       </c>
       <c r="J9">
-        <v>1.023547408039109</v>
+        <v>1.031878304594796</v>
       </c>
       <c r="K9">
-        <v>1.033160526076894</v>
+        <v>1.040432077979796</v>
       </c>
       <c r="L9">
-        <v>1.017866944023057</v>
+        <v>1.025567065210516</v>
       </c>
       <c r="M9">
-        <v>1.036172096739216</v>
+        <v>1.043582861508307</v>
       </c>
       <c r="N9">
-        <v>1.025000962761053</v>
+        <v>1.033343690145417</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9874305575700526</v>
+        <v>0.9998901699948542</v>
       </c>
       <c r="D10">
-        <v>1.012302115568582</v>
+        <v>1.022699031189454</v>
       </c>
       <c r="E10">
-        <v>0.9962809637914849</v>
+        <v>1.007444516850323</v>
       </c>
       <c r="F10">
-        <v>1.014477122270118</v>
+        <v>1.025085546759048</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04074305130686</v>
+        <v>1.045535965838566</v>
       </c>
       <c r="J10">
-        <v>1.016151905322353</v>
+        <v>1.028108146162629</v>
       </c>
       <c r="K10">
-        <v>1.026452748100964</v>
+        <v>1.036670195445605</v>
       </c>
       <c r="L10">
-        <v>1.010717692826099</v>
+        <v>1.021680646688223</v>
       </c>
       <c r="M10">
-        <v>1.028589816627618</v>
+        <v>1.039016178737407</v>
       </c>
       <c r="N10">
-        <v>1.017594957582163</v>
+        <v>1.029568177655833</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9827187923692254</v>
+        <v>0.9969321406939738</v>
       </c>
       <c r="D11">
-        <v>1.008676734322425</v>
+        <v>1.020452073614879</v>
       </c>
       <c r="E11">
-        <v>0.9924420974986136</v>
+        <v>1.005131108566415</v>
       </c>
       <c r="F11">
-        <v>1.010458182023964</v>
+        <v>1.022480191022032</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039268619071378</v>
+        <v>1.044614689685028</v>
       </c>
       <c r="J11">
-        <v>1.012828590212405</v>
+        <v>1.026433105480289</v>
       </c>
       <c r="K11">
-        <v>1.023436854431424</v>
+        <v>1.034998332554526</v>
       </c>
       <c r="L11">
-        <v>1.007507966284154</v>
+        <v>1.019956904114649</v>
       </c>
       <c r="M11">
-        <v>1.025185531056926</v>
+        <v>1.036990261139073</v>
       </c>
       <c r="N11">
-        <v>1.01426692298357</v>
+        <v>1.027890758223594</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9809412258073873</v>
+        <v>0.9958220224313667</v>
       </c>
       <c r="D12">
-        <v>1.007310244651846</v>
+        <v>1.019609702649265</v>
       </c>
       <c r="E12">
-        <v>0.9909955950950712</v>
+        <v>1.004264263266387</v>
       </c>
       <c r="F12">
-        <v>1.008943708050469</v>
+        <v>1.021503642171078</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038710714743896</v>
+        <v>1.044267690909251</v>
       </c>
       <c r="J12">
-        <v>1.011574677533035</v>
+        <v>1.025804260363942</v>
       </c>
       <c r="K12">
-        <v>1.022298719353178</v>
+        <v>1.034370614019668</v>
       </c>
       <c r="L12">
-        <v>1.006297362707615</v>
+        <v>1.01931022019868</v>
       </c>
       <c r="M12">
-        <v>1.023901543487991</v>
+        <v>1.036230145316967</v>
       </c>
       <c r="N12">
-        <v>1.013011229604369</v>
+        <v>1.027261020075052</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9813237939116549</v>
+        <v>0.996060670225325</v>
       </c>
       <c r="D13">
-        <v>1.007604282890354</v>
+        <v>1.019790750266055</v>
       </c>
       <c r="E13">
-        <v>0.9913068302475956</v>
+        <v>1.004450551395356</v>
       </c>
       <c r="F13">
-        <v>1.009269573353318</v>
+        <v>1.021713520077754</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038830860445131</v>
+        <v>1.044342342964583</v>
       </c>
       <c r="J13">
-        <v>1.011844550197226</v>
+        <v>1.0259394556797</v>
       </c>
       <c r="K13">
-        <v>1.022543683068311</v>
+        <v>1.034505569992788</v>
       </c>
       <c r="L13">
-        <v>1.006557893630418</v>
+        <v>1.019449230543458</v>
       </c>
       <c r="M13">
-        <v>1.02417786698824</v>
+        <v>1.036393541843473</v>
       </c>
       <c r="N13">
-        <v>1.013281485518698</v>
+        <v>1.027396407383666</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9825724293567601</v>
+        <v>0.9968406132124142</v>
       </c>
       <c r="D14">
-        <v>1.008564193184295</v>
+        <v>1.020382603034587</v>
       </c>
       <c r="E14">
-        <v>0.9923229576248613</v>
+        <v>1.005059610719849</v>
       </c>
       <c r="F14">
-        <v>1.010333446058002</v>
+        <v>1.022399651104549</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03922271495495</v>
+        <v>1.044586105430021</v>
       </c>
       <c r="J14">
-        <v>1.012725346904208</v>
+        <v>1.026381262432609</v>
       </c>
       <c r="K14">
-        <v>1.023343148084276</v>
+        <v>1.034946583684313</v>
       </c>
       <c r="L14">
-        <v>1.007408279687009</v>
+        <v>1.019903581350568</v>
       </c>
       <c r="M14">
-        <v>1.025079801626522</v>
+        <v>1.036927586624436</v>
       </c>
       <c r="N14">
-        <v>1.014163533058033</v>
+        <v>1.027838841552839</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9833380608678242</v>
+        <v>0.9973196380683781</v>
       </c>
       <c r="D15">
-        <v>1.009152951751551</v>
+        <v>1.020746225925922</v>
       </c>
       <c r="E15">
-        <v>0.99294625578888</v>
+        <v>1.005433862541408</v>
       </c>
       <c r="F15">
-        <v>1.010986016269888</v>
+        <v>1.022821220516086</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.0394627744902</v>
+        <v>1.04473565519476</v>
       </c>
       <c r="J15">
-        <v>1.013265411578128</v>
+        <v>1.026652583250442</v>
       </c>
       <c r="K15">
-        <v>1.023833316444279</v>
+        <v>1.03521740896684</v>
       </c>
       <c r="L15">
-        <v>1.007929757673874</v>
+        <v>1.020182664423026</v>
       </c>
       <c r="M15">
-        <v>1.025632890737555</v>
+        <v>1.037255612580908</v>
       </c>
       <c r="N15">
-        <v>1.014704364685736</v>
+        <v>1.028110547677354</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9877395309408513</v>
+        <v>1.000084919608818</v>
       </c>
       <c r="D16">
-        <v>1.01254001074834</v>
+        <v>1.022847085727985</v>
       </c>
       <c r="E16">
-        <v>0.9965329322087485</v>
+        <v>1.007597011121054</v>
       </c>
       <c r="F16">
-        <v>1.014740892784087</v>
+        <v>1.02525724283707</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04083950321751</v>
+        <v>1.045596444175678</v>
       </c>
       <c r="J16">
-        <v>1.016369804746524</v>
+        <v>1.028218394222642</v>
       </c>
       <c r="K16">
-        <v>1.026650459572374</v>
+        <v>1.036780224656627</v>
       </c>
       <c r="L16">
-        <v>1.010928206329439</v>
+        <v>1.021794161885331</v>
       </c>
       <c r="M16">
-        <v>1.028813089048403</v>
+        <v>1.039149583928849</v>
       </c>
       <c r="N16">
-        <v>1.01781316644851</v>
+        <v>1.029678582280736</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9904537955797905</v>
+        <v>1.00179982322691</v>
       </c>
       <c r="D17">
-        <v>1.014630699831414</v>
+        <v>1.024151444011342</v>
       </c>
       <c r="E17">
-        <v>0.9987476625676058</v>
+        <v>1.008940820508454</v>
       </c>
       <c r="F17">
-        <v>1.017059261026055</v>
+        <v>1.026770031300263</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041685508390755</v>
+        <v>1.046128019776531</v>
       </c>
       <c r="J17">
-        <v>1.018283828496807</v>
+        <v>1.029189012151745</v>
       </c>
       <c r="K17">
-        <v>1.028386972401899</v>
+        <v>1.037748859982804</v>
       </c>
       <c r="L17">
-        <v>1.012777685483605</v>
+        <v>1.022793880021406</v>
       </c>
       <c r="M17">
-        <v>1.030774648009672</v>
+        <v>1.040324419443223</v>
       </c>
       <c r="N17">
-        <v>1.01972990833206</v>
+        <v>1.03065057859863</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9920207858593505</v>
+        <v>1.002793173645905</v>
       </c>
       <c r="D18">
-        <v>1.015838358082717</v>
+        <v>1.024907508820183</v>
       </c>
       <c r="E18">
-        <v>1.000027277714766</v>
+        <v>1.009720035281074</v>
       </c>
       <c r="F18">
-        <v>1.018398670516826</v>
+        <v>1.027647037923026</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042172821140921</v>
+        <v>1.046435110692879</v>
       </c>
       <c r="J18">
-        <v>1.019388664790246</v>
+        <v>1.029751071971058</v>
       </c>
       <c r="K18">
-        <v>1.029389188700781</v>
+        <v>1.038309723723833</v>
       </c>
       <c r="L18">
-        <v>1.013845540326428</v>
+        <v>1.023373071328607</v>
       </c>
       <c r="M18">
-        <v>1.031907200478409</v>
+        <v>1.041005022174953</v>
       </c>
       <c r="N18">
-        <v>1.020836313619762</v>
+        <v>1.031213436607356</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9925523987671929</v>
+        <v>1.003130721770744</v>
       </c>
       <c r="D19">
-        <v>1.016248174235607</v>
+        <v>1.025164512096967</v>
       </c>
       <c r="E19">
-        <v>1.000461565032847</v>
+        <v>1.009984955845854</v>
       </c>
       <c r="F19">
-        <v>1.01885323654912</v>
+        <v>1.027945173862569</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042337956550356</v>
+        <v>1.046539321924463</v>
       </c>
       <c r="J19">
-        <v>1.019763458552766</v>
+        <v>1.029942034857175</v>
       </c>
       <c r="K19">
-        <v>1.029729143566232</v>
+        <v>1.038500271842734</v>
       </c>
       <c r="L19">
-        <v>1.014207835337802</v>
+        <v>1.023569902237687</v>
       </c>
       <c r="M19">
-        <v>1.032291442570462</v>
+        <v>1.041236309038419</v>
       </c>
       <c r="N19">
-        <v>1.021211639632414</v>
+        <v>1.031404670682675</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9901642693187575</v>
+        <v>1.00161655022517</v>
       </c>
       <c r="D20">
-        <v>1.014407618953153</v>
+        <v>1.024011991840196</v>
       </c>
       <c r="E20">
-        <v>0.9985113146415643</v>
+        <v>1.008797121299311</v>
       </c>
       <c r="F20">
-        <v>1.016811861969511</v>
+        <v>1.026608282349194</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041595380045396</v>
+        <v>1.046071294858346</v>
       </c>
       <c r="J20">
-        <v>1.018079678795789</v>
+        <v>1.029085298484232</v>
       </c>
       <c r="K20">
-        <v>1.028201771905234</v>
+        <v>1.037645363082044</v>
       </c>
       <c r="L20">
-        <v>1.012580391393161</v>
+        <v>1.022687027817866</v>
       </c>
       <c r="M20">
-        <v>1.030565399194737</v>
+        <v>1.040198854800392</v>
       </c>
       <c r="N20">
-        <v>1.01952546871505</v>
+        <v>1.030546717645813</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9822055107290054</v>
+        <v>0.9966112578887812</v>
       </c>
       <c r="D21">
-        <v>1.008282083141442</v>
+        <v>1.020208533820487</v>
       </c>
       <c r="E21">
-        <v>0.9920243135628175</v>
+        <v>1.004880468908223</v>
       </c>
       <c r="F21">
-        <v>1.010020772591325</v>
+        <v>1.022197848872619</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03910761116357</v>
+        <v>1.044514457152953</v>
       </c>
       <c r="J21">
-        <v>1.012466523254404</v>
+        <v>1.026251347461599</v>
       </c>
       <c r="K21">
-        <v>1.023108229562163</v>
+        <v>1.034816903674636</v>
       </c>
       <c r="L21">
-        <v>1.007158379760612</v>
+        <v>1.019769965490482</v>
       </c>
       <c r="M21">
-        <v>1.024814753213421</v>
+        <v>1.036770536128677</v>
       </c>
       <c r="N21">
-        <v>1.013904341848958</v>
+        <v>1.027708742087669</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9770418265974228</v>
+        <v>0.9933981340770608</v>
       </c>
       <c r="D22">
-        <v>1.004315044748536</v>
+        <v>1.017772129403879</v>
       </c>
       <c r="E22">
-        <v>0.9878258193164028</v>
+        <v>1.002374096820724</v>
       </c>
       <c r="F22">
-        <v>1.005624782124556</v>
+        <v>1.019373690116727</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037483899175977</v>
+        <v>1.043507780030562</v>
       </c>
       <c r="J22">
-        <v>1.008823827782625</v>
+        <v>1.024430849535854</v>
       </c>
       <c r="K22">
-        <v>1.019801501696161</v>
+        <v>1.032999551296493</v>
       </c>
       <c r="L22">
-        <v>1.003642369411651</v>
+        <v>1.01789866864601</v>
       </c>
       <c r="M22">
-        <v>1.021085628487466</v>
+        <v>1.034570878539064</v>
       </c>
       <c r="N22">
-        <v>1.010256473331786</v>
+        <v>1.025885658846055</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9797950420761783</v>
+        <v>0.9951079241638371</v>
       </c>
       <c r="D23">
-        <v>1.006429490285902</v>
+        <v>1.019068094607582</v>
       </c>
       <c r="E23">
-        <v>0.9900633938536137</v>
+        <v>1.003707041682997</v>
       </c>
       <c r="F23">
-        <v>1.007967670846587</v>
+        <v>1.020875813423746</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038350518957366</v>
+        <v>1.044044131532462</v>
       </c>
       <c r="J23">
-        <v>1.01076611707707</v>
+        <v>1.025399690634276</v>
       </c>
       <c r="K23">
-        <v>1.021564758961272</v>
+        <v>1.033966751460176</v>
       </c>
       <c r="L23">
-        <v>1.005516857913813</v>
+        <v>1.018894299383595</v>
       </c>
       <c r="M23">
-        <v>1.023073728094165</v>
+        <v>1.035741251021506</v>
       </c>
       <c r="N23">
-        <v>1.012201520899814</v>
+        <v>1.026855875809965</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9902951436734208</v>
+        <v>1.001699384763985</v>
       </c>
       <c r="D24">
-        <v>1.014508455983513</v>
+        <v>1.024075018914949</v>
       </c>
       <c r="E24">
-        <v>0.9986181476914966</v>
+        <v>1.008862066998311</v>
       </c>
       <c r="F24">
-        <v>1.016923690572332</v>
+        <v>1.026681386327604</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041636124119511</v>
+        <v>1.046096935568321</v>
       </c>
       <c r="J24">
-        <v>1.018171960951652</v>
+        <v>1.029132174831447</v>
       </c>
       <c r="K24">
-        <v>1.02828548890135</v>
+        <v>1.037692141604796</v>
       </c>
       <c r="L24">
-        <v>1.012669573739915</v>
+        <v>1.022735321847096</v>
       </c>
       <c r="M24">
-        <v>1.03065998545376</v>
+        <v>1.040255606432955</v>
       </c>
       <c r="N24">
-        <v>1.01961788192216</v>
+        <v>1.030593660562819</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.00185005882735</v>
+        <v>1.009078436591185</v>
       </c>
       <c r="D25">
-        <v>1.023424235186476</v>
+        <v>1.0297001351868</v>
       </c>
       <c r="E25">
-        <v>1.008070832151954</v>
+        <v>1.014664513041779</v>
       </c>
       <c r="F25">
-        <v>1.026816454590164</v>
+        <v>1.033208690093753</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04520936912928</v>
+        <v>1.04836314842569</v>
       </c>
       <c r="J25">
-        <v>1.026315321121365</v>
+        <v>1.033304090706552</v>
       </c>
       <c r="K25">
-        <v>1.03566948567492</v>
+        <v>1.041854248536036</v>
       </c>
       <c r="L25">
-        <v>1.020545137608546</v>
+        <v>1.027039367975887</v>
       </c>
       <c r="M25">
-        <v>1.039012268667457</v>
+        <v>1.045312463741251</v>
       </c>
       <c r="N25">
-        <v>1.027772806597369</v>
+        <v>1.034771501036991</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_13/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.014764219896985</v>
+        <v>1.00845273267343</v>
       </c>
       <c r="D2">
-        <v>1.034048433192709</v>
+        <v>1.028200752597215</v>
       </c>
       <c r="E2">
-        <v>1.019158895235968</v>
+        <v>1.0137680606574</v>
       </c>
       <c r="F2">
-        <v>1.038258828650855</v>
+        <v>1.035204119328164</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050082450399141</v>
+        <v>1.046926559333466</v>
       </c>
       <c r="J2">
-        <v>1.036512128098094</v>
+        <v>1.030383530146692</v>
       </c>
       <c r="K2">
-        <v>1.045052955089952</v>
+        <v>1.039280704032651</v>
       </c>
       <c r="L2">
-        <v>1.030357616104875</v>
+        <v>1.025038859841917</v>
       </c>
       <c r="M2">
-        <v>1.04920969738516</v>
+        <v>1.046193859993472</v>
       </c>
       <c r="N2">
-        <v>1.037984094209609</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.014025301094089</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.045131717500527</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018784967257583</v>
+        <v>1.011733505354628</v>
       </c>
       <c r="D3">
-        <v>1.037130537228974</v>
+        <v>1.030460992439224</v>
       </c>
       <c r="E3">
-        <v>1.022349875265448</v>
+        <v>1.016308044755053</v>
       </c>
       <c r="F3">
-        <v>1.041841203224867</v>
+        <v>1.037555415753265</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051282060122131</v>
+        <v>1.047664301824781</v>
       </c>
       <c r="J3">
-        <v>1.038776312709113</v>
+        <v>1.031909334826556</v>
       </c>
       <c r="K3">
-        <v>1.047309385554514</v>
+        <v>1.040718407548573</v>
       </c>
       <c r="L3">
-        <v>1.032704553928207</v>
+        <v>1.026736428181874</v>
       </c>
       <c r="M3">
-        <v>1.051965309235417</v>
+        <v>1.047729301371282</v>
       </c>
       <c r="N3">
-        <v>1.040251494222469</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.014539388929033</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.046346907653742</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021339371262871</v>
+        <v>1.013822450160198</v>
       </c>
       <c r="D4">
-        <v>1.039091649419453</v>
+        <v>1.03190350356488</v>
       </c>
       <c r="E4">
-        <v>1.024382770809663</v>
+        <v>1.017930877992078</v>
       </c>
       <c r="F4">
-        <v>1.044122004443985</v>
+        <v>1.039058335526002</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052036467063035</v>
+        <v>1.048126763980626</v>
       </c>
       <c r="J4">
-        <v>1.040212528928486</v>
+        <v>1.032879065441607</v>
       </c>
       <c r="K4">
-        <v>1.048740099609504</v>
+        <v>1.041631545412862</v>
       </c>
       <c r="L4">
-        <v>1.034195561003177</v>
+        <v>1.027817604664227</v>
       </c>
       <c r="M4">
-        <v>1.053715555180822</v>
+        <v>1.048707151467976</v>
       </c>
       <c r="N4">
-        <v>1.041689750033609</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.01486601891576</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.047120803824616</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022402275619065</v>
+        <v>1.014692724470396</v>
       </c>
       <c r="D5">
-        <v>1.039908368322022</v>
+        <v>1.032505240147044</v>
       </c>
       <c r="E5">
-        <v>1.025229991652735</v>
+        <v>1.01860827417211</v>
       </c>
       <c r="F5">
-        <v>1.045072200252683</v>
+        <v>1.039685822688148</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052348499609453</v>
+        <v>1.048317656965748</v>
       </c>
       <c r="J5">
-        <v>1.040809583940983</v>
+        <v>1.033282613961343</v>
       </c>
       <c r="K5">
-        <v>1.049334721042105</v>
+        <v>1.042011392581994</v>
       </c>
       <c r="L5">
-        <v>1.034815945275158</v>
+        <v>1.028268080582968</v>
       </c>
       <c r="M5">
-        <v>1.054443709875726</v>
+        <v>1.049114553976513</v>
       </c>
       <c r="N5">
-        <v>1.042287652932707</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.015001918793679</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.047443232597923</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022580108829001</v>
+        <v>1.014838388888896</v>
       </c>
       <c r="D6">
-        <v>1.040045051778491</v>
+        <v>1.03260600179486</v>
       </c>
       <c r="E6">
-        <v>1.025371815675256</v>
+        <v>1.018721731234549</v>
       </c>
       <c r="F6">
-        <v>1.045231242286477</v>
+        <v>1.039790928731508</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052400593934452</v>
+        <v>1.048349503172771</v>
       </c>
       <c r="J6">
-        <v>1.040909442515347</v>
+        <v>1.033350131825085</v>
       </c>
       <c r="K6">
-        <v>1.049434163818875</v>
+        <v>1.042074935920645</v>
       </c>
       <c r="L6">
-        <v>1.034919738172262</v>
+        <v>1.028343482279677</v>
       </c>
       <c r="M6">
-        <v>1.054565527625685</v>
+        <v>1.049182744481954</v>
       </c>
       <c r="N6">
-        <v>1.042387653317701</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.015024654711867</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.047497200295618</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021353616477738</v>
+        <v>1.013834109652258</v>
       </c>
       <c r="D7">
-        <v>1.039102592556875</v>
+        <v>1.031911562320405</v>
       </c>
       <c r="E7">
-        <v>1.024394120235055</v>
+        <v>1.017939948272703</v>
       </c>
       <c r="F7">
-        <v>1.044134734668431</v>
+        <v>1.039066736970065</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052040656441014</v>
+        <v>1.048129328501406</v>
       </c>
       <c r="J7">
-        <v>1.040220533019331</v>
+        <v>1.032884473786128</v>
       </c>
       <c r="K7">
-        <v>1.048748071661735</v>
+        <v>1.041636636715856</v>
       </c>
       <c r="L7">
-        <v>1.034203875664181</v>
+        <v>1.027823639754141</v>
       </c>
       <c r="M7">
-        <v>1.053725314603258</v>
+        <v>1.048712609592058</v>
       </c>
       <c r="N7">
-        <v>1.041697765491181</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.01486784034445</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.047125123524653</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016133059629543</v>
+        <v>1.009568637838321</v>
       </c>
       <c r="D8">
-        <v>1.035097056932956</v>
+        <v>1.02896881467799</v>
       </c>
       <c r="E8">
-        <v>1.020244041123843</v>
+        <v>1.014630817510128</v>
       </c>
       <c r="F8">
-        <v>1.03947737918185</v>
+        <v>1.036002645039885</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050492446215171</v>
+        <v>1.04717899551569</v>
       </c>
       <c r="J8">
-        <v>1.03728340660906</v>
+        <v>1.030902869036164</v>
       </c>
       <c r="K8">
-        <v>1.045821710671662</v>
+        <v>1.03977017734292</v>
       </c>
       <c r="L8">
-        <v>1.031156602218223</v>
+        <v>1.025616186044347</v>
       </c>
       <c r="M8">
-        <v>1.050147892931241</v>
+        <v>1.046716059126084</v>
       </c>
       <c r="N8">
-        <v>1.038756468024514</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.014200301543159</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.045545000351652</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.006554912571655</v>
+        <v>1.001782822845105</v>
       </c>
       <c r="D9">
-        <v>1.027774099036035</v>
+        <v>1.023625532342214</v>
       </c>
       <c r="E9">
-        <v>1.012676358840375</v>
+        <v>1.008635810742063</v>
       </c>
       <c r="F9">
-        <v>1.030973079991466</v>
+        <v>1.030457028369662</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047592283043617</v>
+        <v>1.045388226841325</v>
       </c>
       <c r="J9">
-        <v>1.031878304594796</v>
+        <v>1.02727278173973</v>
       </c>
       <c r="K9">
-        <v>1.040432077979796</v>
+        <v>1.036346587822871</v>
       </c>
       <c r="L9">
-        <v>1.025567065210516</v>
+        <v>1.021590314691442</v>
       </c>
       <c r="M9">
-        <v>1.043582861508307</v>
+        <v>1.043074559206106</v>
       </c>
       <c r="N9">
-        <v>1.033343690145417</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.012976714602903</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.042663011631427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9998901699948542</v>
+        <v>0.9964391056475753</v>
       </c>
       <c r="D10">
-        <v>1.022699031189454</v>
+        <v>1.020002749940656</v>
       </c>
       <c r="E10">
-        <v>1.007444516850323</v>
+        <v>1.004558633267466</v>
       </c>
       <c r="F10">
-        <v>1.025085546759048</v>
+        <v>1.026759172556475</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045535965838566</v>
+        <v>1.044143892406974</v>
       </c>
       <c r="J10">
-        <v>1.028108146162629</v>
+        <v>1.024794719730615</v>
       </c>
       <c r="K10">
-        <v>1.036670195445605</v>
+        <v>1.034020002417467</v>
       </c>
       <c r="L10">
-        <v>1.021680646688223</v>
+        <v>1.018846065111174</v>
       </c>
       <c r="M10">
-        <v>1.039016178737407</v>
+        <v>1.040661524874206</v>
       </c>
       <c r="N10">
-        <v>1.029568177655833</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.012143971716687</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.04080455353734</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9969321406939738</v>
+        <v>0.9944124592101188</v>
       </c>
       <c r="D11">
-        <v>1.020452073614879</v>
+        <v>1.018820555295904</v>
       </c>
       <c r="E11">
-        <v>1.005131108566415</v>
+        <v>1.003063386885478</v>
       </c>
       <c r="F11">
-        <v>1.022480191022032</v>
+        <v>1.025955884483726</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044614689685028</v>
+        <v>1.043829108045835</v>
       </c>
       <c r="J11">
-        <v>1.026433105480289</v>
+        <v>1.024019548112936</v>
       </c>
       <c r="K11">
-        <v>1.034998332554526</v>
+        <v>1.033396062193061</v>
       </c>
       <c r="L11">
-        <v>1.019956904114649</v>
+        <v>1.01792776252811</v>
       </c>
       <c r="M11">
-        <v>1.036990261139073</v>
+        <v>1.040404367268302</v>
       </c>
       <c r="N11">
-        <v>1.027890758223594</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.011908914372454</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.041035966906937</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9958220224313667</v>
+        <v>0.9937772229438184</v>
       </c>
       <c r="D12">
-        <v>1.019609702649265</v>
+        <v>1.018529498408509</v>
       </c>
       <c r="E12">
-        <v>1.004264263266387</v>
+        <v>1.002615567273163</v>
       </c>
       <c r="F12">
-        <v>1.021503642171078</v>
+        <v>1.025954024914229</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044267690909251</v>
+        <v>1.043799573504354</v>
       </c>
       <c r="J12">
-        <v>1.025804260363942</v>
+        <v>1.023847296883118</v>
       </c>
       <c r="K12">
-        <v>1.034370614019668</v>
+        <v>1.033310109032026</v>
       </c>
       <c r="L12">
-        <v>1.01931022019868</v>
+        <v>1.017692828116103</v>
       </c>
       <c r="M12">
-        <v>1.036230145316967</v>
+        <v>1.040600324992825</v>
       </c>
       <c r="N12">
-        <v>1.027261020075052</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.011872314967492</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.04151643198485</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.996060670225325</v>
+        <v>0.9941711600606516</v>
       </c>
       <c r="D13">
-        <v>1.019790750266055</v>
+        <v>1.018906738941928</v>
       </c>
       <c r="E13">
-        <v>1.004450551395356</v>
+        <v>1.002942400187622</v>
       </c>
       <c r="F13">
-        <v>1.021713520077754</v>
+        <v>1.026580813276249</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044342342964583</v>
+        <v>1.043992673129823</v>
       </c>
       <c r="J13">
-        <v>1.0259394556797</v>
+        <v>1.024130740294006</v>
       </c>
       <c r="K13">
-        <v>1.034505569992788</v>
+        <v>1.033637614698169</v>
       </c>
       <c r="L13">
-        <v>1.019449230543458</v>
+        <v>1.017969599490056</v>
       </c>
       <c r="M13">
-        <v>1.036393541843473</v>
+        <v>1.041173503980096</v>
       </c>
       <c r="N13">
-        <v>1.027396407383666</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.011987010333795</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.042245582260963</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9968406132124142</v>
+        <v>0.9949123218677323</v>
       </c>
       <c r="D14">
-        <v>1.020382603034587</v>
+        <v>1.019472071256214</v>
       </c>
       <c r="E14">
-        <v>1.005059610719849</v>
+        <v>1.003521348289437</v>
       </c>
       <c r="F14">
-        <v>1.022399651104549</v>
+        <v>1.027302552232226</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044586105430021</v>
+        <v>1.044227502129828</v>
       </c>
       <c r="J14">
-        <v>1.026381262432609</v>
+        <v>1.024534255617545</v>
       </c>
       <c r="K14">
-        <v>1.034946583684313</v>
+        <v>1.03405238403556</v>
       </c>
       <c r="L14">
-        <v>1.019903581350568</v>
+        <v>1.018394043403417</v>
       </c>
       <c r="M14">
-        <v>1.036927586624436</v>
+        <v>1.041743636804413</v>
       </c>
       <c r="N14">
-        <v>1.027838841552839</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.01213534072673</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.042869172773377</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9973196380683781</v>
+        <v>0.9953187588946046</v>
       </c>
       <c r="D15">
-        <v>1.020746225925922</v>
+        <v>1.019759975783423</v>
       </c>
       <c r="E15">
-        <v>1.005433862541408</v>
+        <v>1.003833210092644</v>
       </c>
       <c r="F15">
-        <v>1.022821220516086</v>
+        <v>1.027627753552199</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04473565519476</v>
+        <v>1.044336103737217</v>
       </c>
       <c r="J15">
-        <v>1.026652583250442</v>
+        <v>1.024735311728949</v>
       </c>
       <c r="K15">
-        <v>1.03521740896684</v>
+        <v>1.034248713812406</v>
       </c>
       <c r="L15">
-        <v>1.020182664423026</v>
+        <v>1.018611670124579</v>
       </c>
       <c r="M15">
-        <v>1.037255612580908</v>
+        <v>1.041977661878343</v>
       </c>
       <c r="N15">
-        <v>1.028110547677354</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.012205634436942</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.043091599791742</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.000084919608818</v>
+        <v>0.9974993381790749</v>
       </c>
       <c r="D16">
-        <v>1.022847085727985</v>
+        <v>1.021221204618488</v>
       </c>
       <c r="E16">
-        <v>1.007597011121054</v>
+        <v>1.0054859691714</v>
       </c>
       <c r="F16">
-        <v>1.02525724283707</v>
+        <v>1.029100355448412</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045596444175678</v>
+        <v>1.044838676102921</v>
       </c>
       <c r="J16">
-        <v>1.028218394222642</v>
+        <v>1.025735419473636</v>
       </c>
       <c r="K16">
-        <v>1.036780224656627</v>
+        <v>1.035182006065779</v>
       </c>
       <c r="L16">
-        <v>1.021794161885331</v>
+        <v>1.019720485411009</v>
       </c>
       <c r="M16">
-        <v>1.039149583928849</v>
+        <v>1.042928151801135</v>
       </c>
       <c r="N16">
-        <v>1.029678582280736</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.012537939228798</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.04380423521808</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.00179982322691</v>
+        <v>0.9987858721328755</v>
       </c>
       <c r="D17">
-        <v>1.024151444011342</v>
+        <v>1.022047063999538</v>
       </c>
       <c r="E17">
-        <v>1.008940820508454</v>
+        <v>1.006453498781418</v>
       </c>
       <c r="F17">
-        <v>1.026770031300263</v>
+        <v>1.029847796413958</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046128019776531</v>
+        <v>1.04509891024103</v>
       </c>
       <c r="J17">
-        <v>1.029189012151745</v>
+        <v>1.026290787571185</v>
       </c>
       <c r="K17">
-        <v>1.037748859982804</v>
+        <v>1.035679264204538</v>
       </c>
       <c r="L17">
-        <v>1.022793880021406</v>
+        <v>1.020349313109147</v>
       </c>
       <c r="M17">
-        <v>1.040324419443223</v>
+        <v>1.043351970973528</v>
       </c>
       <c r="N17">
-        <v>1.03065057859863</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.012714857770857</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.044010497911084</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.002793173645905</v>
+        <v>0.9994191714898869</v>
       </c>
       <c r="D18">
-        <v>1.024907508820183</v>
+        <v>1.022387587718355</v>
       </c>
       <c r="E18">
-        <v>1.009720035281074</v>
+        <v>1.006914227383949</v>
       </c>
       <c r="F18">
-        <v>1.027647037923026</v>
+        <v>1.02999974599852</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046435110692879</v>
+        <v>1.045166625403193</v>
       </c>
       <c r="J18">
-        <v>1.029751071971058</v>
+        <v>1.026504139799069</v>
       </c>
       <c r="K18">
-        <v>1.038309723723833</v>
+        <v>1.035830756547509</v>
       </c>
       <c r="L18">
-        <v>1.023373071328607</v>
+        <v>1.020614670091266</v>
       </c>
       <c r="M18">
-        <v>1.041005022174953</v>
+        <v>1.043319985742911</v>
       </c>
       <c r="N18">
-        <v>1.031213436607356</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.012770429847847</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.043748142144817</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.003130721770744</v>
+        <v>0.9994539604449463</v>
       </c>
       <c r="D19">
-        <v>1.025164512096967</v>
+        <v>1.022280264623684</v>
       </c>
       <c r="E19">
-        <v>1.009984955845854</v>
+        <v>1.006909665689115</v>
       </c>
       <c r="F19">
-        <v>1.027945173862569</v>
+        <v>1.029600267067792</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046539321924463</v>
+        <v>1.045057731661532</v>
       </c>
       <c r="J19">
-        <v>1.029942034857175</v>
+        <v>1.026402864400444</v>
       </c>
       <c r="K19">
-        <v>1.038500271842734</v>
+        <v>1.03566264067804</v>
       </c>
       <c r="L19">
-        <v>1.023569902237687</v>
+        <v>1.020546276407913</v>
       </c>
       <c r="M19">
-        <v>1.041236309038419</v>
+        <v>1.042864987650071</v>
       </c>
       <c r="N19">
-        <v>1.031404670682675</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.012715984962114</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.043063809530281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,81 +1279,93 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.00161655022517</v>
+        <v>0.9978226143407704</v>
       </c>
       <c r="D20">
-        <v>1.024011991840196</v>
+        <v>1.020940139783839</v>
       </c>
       <c r="E20">
-        <v>1.008797121299311</v>
+        <v>1.005612011025205</v>
       </c>
       <c r="F20">
-        <v>1.026608282349194</v>
+        <v>1.027717681168867</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046071294858346</v>
+        <v>1.044469560425428</v>
       </c>
       <c r="J20">
-        <v>1.029085298484232</v>
+        <v>1.025437729352627</v>
       </c>
       <c r="K20">
-        <v>1.037645363082044</v>
+        <v>1.034624511403271</v>
       </c>
       <c r="L20">
-        <v>1.022687027817866</v>
+        <v>1.01955689259317</v>
       </c>
       <c r="M20">
-        <v>1.040198854800392</v>
+        <v>1.041290050413257</v>
       </c>
       <c r="N20">
-        <v>1.030546717645813</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.012360198442139</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.04129144418769</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C21">
-        <v>0.9966112578887812</v>
+        <v>0.9937573826790406</v>
       </c>
       <c r="D21">
-        <v>1.020208533820487</v>
+        <v>1.01815604258573</v>
       </c>
       <c r="E21">
-        <v>1.004880468908223</v>
+        <v>1.002513883643952</v>
       </c>
       <c r="F21">
-        <v>1.022197848872619</v>
+        <v>1.024801764644891</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044514457152953</v>
+        <v>1.043479192539853</v>
       </c>
       <c r="J21">
-        <v>1.026251347461599</v>
+        <v>1.023518443854879</v>
       </c>
       <c r="K21">
-        <v>1.034816903674636</v>
+        <v>1.032801418268486</v>
       </c>
       <c r="L21">
-        <v>1.019769965490482</v>
+        <v>1.01744778573261</v>
       </c>
       <c r="M21">
-        <v>1.036770536128677</v>
+        <v>1.039328016802763</v>
       </c>
       <c r="N21">
-        <v>1.027708742087669</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.011710566468015</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.039697877307752</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9933981340770608</v>
+        <v>0.9911771951349808</v>
       </c>
       <c r="D22">
-        <v>1.017772129403879</v>
+        <v>1.016405907151477</v>
       </c>
       <c r="E22">
-        <v>1.002374096820724</v>
+        <v>1.00055755274129</v>
       </c>
       <c r="F22">
-        <v>1.019373690116727</v>
+        <v>1.022996309883349</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043507780030562</v>
+        <v>1.042853925958547</v>
       </c>
       <c r="J22">
-        <v>1.024430849535854</v>
+        <v>1.022309574390367</v>
       </c>
       <c r="K22">
-        <v>1.032999551296493</v>
+        <v>1.031659218379727</v>
       </c>
       <c r="L22">
-        <v>1.01789866864601</v>
+        <v>1.016117972488819</v>
       </c>
       <c r="M22">
-        <v>1.034570878539064</v>
+        <v>1.038125568030665</v>
       </c>
       <c r="N22">
-        <v>1.025885658846055</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.011302778687511</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.038746218035113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9951079241638371</v>
+        <v>0.9925493675828927</v>
       </c>
       <c r="D23">
-        <v>1.019068094607582</v>
+        <v>1.017336142681822</v>
       </c>
       <c r="E23">
-        <v>1.003707041682997</v>
+        <v>1.001597245623928</v>
       </c>
       <c r="F23">
-        <v>1.020875813423746</v>
+        <v>1.023955711245397</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044044131532462</v>
+        <v>1.043187090446866</v>
       </c>
       <c r="J23">
-        <v>1.025399690634276</v>
+        <v>1.022952553303809</v>
       </c>
       <c r="K23">
-        <v>1.033966751460176</v>
+        <v>1.032266770841549</v>
       </c>
       <c r="L23">
-        <v>1.018894299383595</v>
+        <v>1.016825047482286</v>
       </c>
       <c r="M23">
-        <v>1.035741251021506</v>
+        <v>1.038764903113355</v>
       </c>
       <c r="N23">
-        <v>1.026855875809965</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.011519679271989</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.039252209943333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.001699384763985</v>
+        <v>0.9978564412375071</v>
       </c>
       <c r="D24">
-        <v>1.024075018914949</v>
+        <v>1.020944756958822</v>
       </c>
       <c r="E24">
-        <v>1.008862066998311</v>
+        <v>1.005633621372962</v>
       </c>
       <c r="F24">
-        <v>1.026681386327604</v>
+        <v>1.027682674566521</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046096935568321</v>
+        <v>1.044461428539093</v>
       </c>
       <c r="J24">
-        <v>1.029132174831447</v>
+        <v>1.025437256120573</v>
       </c>
       <c r="K24">
-        <v>1.037692141604796</v>
+        <v>1.034613778789073</v>
       </c>
       <c r="L24">
-        <v>1.022735321847096</v>
+        <v>1.019562521362071</v>
       </c>
       <c r="M24">
-        <v>1.040255606432955</v>
+        <v>1.041240487163446</v>
       </c>
       <c r="N24">
-        <v>1.030593660562819</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.012357751428433</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.041211469466731</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.009078436591185</v>
+        <v>1.003828982389889</v>
       </c>
       <c r="D25">
-        <v>1.0297001351868</v>
+        <v>1.025026251422272</v>
       </c>
       <c r="E25">
-        <v>1.014664513041779</v>
+        <v>1.010205859011826</v>
       </c>
       <c r="F25">
-        <v>1.033208690093753</v>
+        <v>1.031908680910632</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04836314842569</v>
+        <v>1.045865240681529</v>
       </c>
       <c r="J25">
-        <v>1.033304090706552</v>
+        <v>1.028228169561727</v>
       </c>
       <c r="K25">
-        <v>1.041854248536036</v>
+        <v>1.037248103249743</v>
       </c>
       <c r="L25">
-        <v>1.027039367975887</v>
+        <v>1.022647781440429</v>
       </c>
       <c r="M25">
-        <v>1.045312463741251</v>
+        <v>1.04403105616175</v>
       </c>
       <c r="N25">
-        <v>1.034771501036991</v>
+        <v>1.013298821151786</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.043420012183802</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_13/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.00845273267343</v>
+        <v>1.008063065142903</v>
       </c>
       <c r="D2">
-        <v>1.028200752597215</v>
+        <v>1.027300442932411</v>
       </c>
       <c r="E2">
-        <v>1.0137680606574</v>
+        <v>1.013436593182989</v>
       </c>
       <c r="F2">
-        <v>1.035204119328164</v>
+        <v>1.034619081550406</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.046926559333466</v>
+        <v>1.046553475324739</v>
       </c>
       <c r="J2">
-        <v>1.030383530146692</v>
+        <v>1.030005257108488</v>
       </c>
       <c r="K2">
-        <v>1.039280704032651</v>
+        <v>1.038392103024878</v>
       </c>
       <c r="L2">
-        <v>1.025038859841917</v>
+        <v>1.024711855719766</v>
       </c>
       <c r="M2">
-        <v>1.046193859993472</v>
+        <v>1.045616299694468</v>
       </c>
       <c r="N2">
-        <v>1.014025301094089</v>
+        <v>1.015153192506758</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.045131717500527</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.044674620018189</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022265006913447</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.011733505354628</v>
+        <v>1.011231480717256</v>
       </c>
       <c r="D3">
-        <v>1.030460992439224</v>
+        <v>1.029403725753971</v>
       </c>
       <c r="E3">
-        <v>1.016308044755053</v>
+        <v>1.015878291293366</v>
       </c>
       <c r="F3">
-        <v>1.037555415753265</v>
+        <v>1.036860369058296</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.047664301824781</v>
+        <v>1.047213602519963</v>
       </c>
       <c r="J3">
-        <v>1.031909334826556</v>
+        <v>1.031420577592883</v>
       </c>
       <c r="K3">
-        <v>1.040718407548573</v>
+        <v>1.039673711261639</v>
       </c>
       <c r="L3">
-        <v>1.026736428181874</v>
+        <v>1.026311958865846</v>
       </c>
       <c r="M3">
-        <v>1.047729301371282</v>
+        <v>1.047042375645246</v>
       </c>
       <c r="N3">
-        <v>1.014539388929033</v>
+        <v>1.015532142213757</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.046346907653742</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.045803256161172</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022509753631597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.013822450160198</v>
+        <v>1.013249529410943</v>
       </c>
       <c r="D4">
-        <v>1.03190350356488</v>
+        <v>1.030746689320133</v>
       </c>
       <c r="E4">
-        <v>1.017930877992078</v>
+        <v>1.017439026410536</v>
       </c>
       <c r="F4">
-        <v>1.039058335526002</v>
+        <v>1.038293633417205</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.048126763980626</v>
+        <v>1.047626810112714</v>
       </c>
       <c r="J4">
-        <v>1.032879065441607</v>
+        <v>1.032320277759901</v>
       </c>
       <c r="K4">
-        <v>1.041631545412862</v>
+        <v>1.040487667788894</v>
       </c>
       <c r="L4">
-        <v>1.027817604664227</v>
+        <v>1.027331437055244</v>
       </c>
       <c r="M4">
-        <v>1.048707151467976</v>
+        <v>1.047950852921245</v>
       </c>
       <c r="N4">
-        <v>1.01486601891576</v>
+        <v>1.015772988503157</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.047120803824616</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.046522249422753</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022662795575086</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.014692724470396</v>
+        <v>1.014090413583443</v>
       </c>
       <c r="D5">
-        <v>1.032505240147044</v>
+        <v>1.031307042729429</v>
       </c>
       <c r="E5">
-        <v>1.01860827417211</v>
+        <v>1.018090662880084</v>
       </c>
       <c r="F5">
-        <v>1.039685822688148</v>
+        <v>1.038892190509281</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.048317656965748</v>
+        <v>1.047797221184698</v>
       </c>
       <c r="J5">
-        <v>1.033282613961343</v>
+        <v>1.032694724256006</v>
       </c>
       <c r="K5">
-        <v>1.042011392581994</v>
+        <v>1.040826242958895</v>
       </c>
       <c r="L5">
-        <v>1.028268080582968</v>
+        <v>1.027756292131235</v>
       </c>
       <c r="M5">
-        <v>1.049114553976513</v>
+        <v>1.048329414303568</v>
       </c>
       <c r="N5">
-        <v>1.015001918793679</v>
+        <v>1.015873214233116</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.047443232597923</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.046821852838185</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022725874005863</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014838388888896</v>
+        <v>1.014231167075701</v>
       </c>
       <c r="D6">
-        <v>1.03260600179486</v>
+        <v>1.031400882881698</v>
       </c>
       <c r="E6">
-        <v>1.018721731234549</v>
+        <v>1.018199814725459</v>
       </c>
       <c r="F6">
-        <v>1.039790928731508</v>
+        <v>1.038992459411233</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.048349503172771</v>
+        <v>1.047825641367604</v>
       </c>
       <c r="J6">
-        <v>1.033350131825085</v>
+        <v>1.032757375322026</v>
       </c>
       <c r="K6">
-        <v>1.042074935920645</v>
+        <v>1.040882881045592</v>
       </c>
       <c r="L6">
-        <v>1.028343482279677</v>
+        <v>1.027827410276366</v>
       </c>
       <c r="M6">
-        <v>1.049182744481954</v>
+        <v>1.048392780912259</v>
       </c>
       <c r="N6">
-        <v>1.015024654711867</v>
+        <v>1.015889982907176</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.047497200295618</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.04687200282382</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022736391654553</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013834109652258</v>
+        <v>1.01326729071294</v>
       </c>
       <c r="D7">
-        <v>1.031911562320405</v>
+        <v>1.030759036696194</v>
       </c>
       <c r="E7">
-        <v>1.017939948272703</v>
+        <v>1.017453528840195</v>
       </c>
       <c r="F7">
-        <v>1.039066736970065</v>
+        <v>1.038305634061405</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.048129328501406</v>
+        <v>1.047632269208939</v>
       </c>
       <c r="J7">
-        <v>1.032884473786128</v>
+        <v>1.032331631746201</v>
       </c>
       <c r="K7">
-        <v>1.041636636715856</v>
+        <v>1.04049699514309</v>
       </c>
       <c r="L7">
-        <v>1.027823639754141</v>
+        <v>1.027342839477427</v>
       </c>
       <c r="M7">
-        <v>1.048712609592058</v>
+        <v>1.047959867708498</v>
       </c>
       <c r="N7">
-        <v>1.01486784034445</v>
+        <v>1.015801758915685</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.047125123524653</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.046529383963443</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022665075035947</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.009568637838321</v>
+        <v>1.009160586149881</v>
       </c>
       <c r="D8">
-        <v>1.02896881467799</v>
+        <v>1.028029962379142</v>
       </c>
       <c r="E8">
-        <v>1.014630817510128</v>
+        <v>1.014283593745549</v>
       </c>
       <c r="F8">
-        <v>1.036002645039885</v>
+        <v>1.035392397354291</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.04717899551569</v>
+        <v>1.046789242098746</v>
       </c>
       <c r="J8">
-        <v>1.030902869036164</v>
+        <v>1.030506355789234</v>
       </c>
       <c r="K8">
-        <v>1.03977017734292</v>
+        <v>1.038843177735392</v>
       </c>
       <c r="L8">
-        <v>1.025616186044347</v>
+        <v>1.025273499169721</v>
       </c>
       <c r="M8">
-        <v>1.046716059126084</v>
+        <v>1.046113382802233</v>
       </c>
       <c r="N8">
-        <v>1.014200301543159</v>
+        <v>1.015365562368363</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.045545000351652</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.045068025602553</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022353265445799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.001782822845105</v>
+        <v>1.001648385266202</v>
       </c>
       <c r="D9">
-        <v>1.023625532342214</v>
+        <v>1.023063816538326</v>
       </c>
       <c r="E9">
-        <v>1.008635810742063</v>
+        <v>1.008527405810643</v>
       </c>
       <c r="F9">
-        <v>1.030457028369662</v>
+        <v>1.03011211350266</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.045388226841325</v>
+        <v>1.045185124690602</v>
       </c>
       <c r="J9">
-        <v>1.02727278173973</v>
+        <v>1.027143068781533</v>
       </c>
       <c r="K9">
-        <v>1.036346587822871</v>
+        <v>1.035793462738083</v>
       </c>
       <c r="L9">
-        <v>1.021590314691442</v>
+        <v>1.021483630422047</v>
       </c>
       <c r="M9">
-        <v>1.043074559206106</v>
+        <v>1.042734829284534</v>
       </c>
       <c r="N9">
-        <v>1.012976714602903</v>
+        <v>1.014474232256561</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.042663011631427</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.04239413893064</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021757755971367</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9964391056475753</v>
+        <v>0.9965226581986163</v>
       </c>
       <c r="D10">
-        <v>1.020002749940656</v>
+        <v>1.019720407213803</v>
       </c>
       <c r="E10">
-        <v>1.004558633267466</v>
+        <v>1.004640209225009</v>
       </c>
       <c r="F10">
-        <v>1.026759172556475</v>
+        <v>1.026614093073205</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.044143892406974</v>
+        <v>1.044082013924737</v>
       </c>
       <c r="J10">
-        <v>1.024794719730615</v>
+        <v>1.024874924015072</v>
       </c>
       <c r="K10">
-        <v>1.034020002417467</v>
+        <v>1.033742504067869</v>
       </c>
       <c r="L10">
-        <v>1.018846065111174</v>
+        <v>1.018926185647362</v>
       </c>
       <c r="M10">
-        <v>1.040661524874206</v>
+        <v>1.040518892125743</v>
       </c>
       <c r="N10">
-        <v>1.012143971716687</v>
+        <v>1.013985058487581</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.04080455353734</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.040691676317623</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021352097769449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9944124592101188</v>
+        <v>0.9946015505465806</v>
       </c>
       <c r="D11">
-        <v>1.018820555295904</v>
+        <v>1.01864949640543</v>
       </c>
       <c r="E11">
-        <v>1.003063386885478</v>
+        <v>1.003236551268474</v>
       </c>
       <c r="F11">
-        <v>1.025955884483726</v>
+        <v>1.025893915333257</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.043829108045835</v>
+        <v>1.04382639463996</v>
       </c>
       <c r="J11">
-        <v>1.024019548112936</v>
+        <v>1.024200648700861</v>
       </c>
       <c r="K11">
-        <v>1.033396062193061</v>
+        <v>1.033228076897961</v>
       </c>
       <c r="L11">
-        <v>1.01792776252811</v>
+        <v>1.018097688000202</v>
       </c>
       <c r="M11">
-        <v>1.040404367268302</v>
+        <v>1.040343491438549</v>
       </c>
       <c r="N11">
-        <v>1.011908914372454</v>
+        <v>1.01405028853497</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.041035966906937</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.040987814865384</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021288741172187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9937772229438184</v>
+        <v>0.99399527858874</v>
       </c>
       <c r="D12">
-        <v>1.018529498408509</v>
+        <v>1.018385100701276</v>
       </c>
       <c r="E12">
-        <v>1.002615567273163</v>
+        <v>1.002813249185922</v>
       </c>
       <c r="F12">
-        <v>1.025954024914229</v>
+        <v>1.025912530017844</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.043799573504354</v>
+        <v>1.043810741610285</v>
       </c>
       <c r="J12">
-        <v>1.023847296883118</v>
+        <v>1.024055961204855</v>
       </c>
       <c r="K12">
-        <v>1.033310109032026</v>
+        <v>1.033168348770394</v>
       </c>
       <c r="L12">
-        <v>1.017692828116103</v>
+        <v>1.0178867495252</v>
       </c>
       <c r="M12">
-        <v>1.040600324992825</v>
+        <v>1.040559573726818</v>
       </c>
       <c r="N12">
-        <v>1.011872314967492</v>
+        <v>1.014127753409539</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.04151643198485</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.041484209078066</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021305469242884</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9941711600606516</v>
+        <v>0.994351969074305</v>
       </c>
       <c r="D13">
-        <v>1.018906738941928</v>
+        <v>1.018718619062566</v>
       </c>
       <c r="E13">
-        <v>1.002942400187622</v>
+        <v>1.00310662722261</v>
       </c>
       <c r="F13">
-        <v>1.026580813276249</v>
+        <v>1.026507273885867</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.043992673129823</v>
+        <v>1.043979494399992</v>
       </c>
       <c r="J13">
-        <v>1.024130740294006</v>
+        <v>1.024303799026488</v>
       </c>
       <c r="K13">
-        <v>1.033637614698169</v>
+        <v>1.033452916262108</v>
       </c>
       <c r="L13">
-        <v>1.017969599490056</v>
+        <v>1.018130715442173</v>
       </c>
       <c r="M13">
-        <v>1.041173503980096</v>
+        <v>1.04110127606532</v>
       </c>
       <c r="N13">
-        <v>1.011987010333795</v>
+        <v>1.01418496090053</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.042245582260963</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.042188484370993</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021385319320625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9949123218677323</v>
+        <v>0.9950377268322439</v>
       </c>
       <c r="D14">
-        <v>1.019472071256214</v>
+        <v>1.019222109471852</v>
       </c>
       <c r="E14">
-        <v>1.003521348289437</v>
+        <v>1.003636569358143</v>
       </c>
       <c r="F14">
-        <v>1.027302552232226</v>
+        <v>1.027183334528235</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.044227502129828</v>
+        <v>1.044180448456434</v>
       </c>
       <c r="J14">
-        <v>1.024534255617545</v>
+        <v>1.024654360659011</v>
       </c>
       <c r="K14">
-        <v>1.03405238403556</v>
+        <v>1.03380691242731</v>
       </c>
       <c r="L14">
-        <v>1.018394043403417</v>
+        <v>1.018507108928782</v>
       </c>
       <c r="M14">
-        <v>1.041743636804413</v>
+        <v>1.04162651819637</v>
       </c>
       <c r="N14">
-        <v>1.01213534072673</v>
+        <v>1.014216647192291</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.042869172773377</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.042776600174135</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021469485607118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9953187588946046</v>
+        <v>0.9954166859271611</v>
       </c>
       <c r="D15">
-        <v>1.019759975783423</v>
+        <v>1.019479757483541</v>
       </c>
       <c r="E15">
-        <v>1.003833210092644</v>
+        <v>1.003924304139701</v>
       </c>
       <c r="F15">
-        <v>1.027627753552199</v>
+        <v>1.027486154183693</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.044336103737217</v>
+        <v>1.044272671447332</v>
       </c>
       <c r="J15">
-        <v>1.024735311728949</v>
+        <v>1.02482913570038</v>
       </c>
       <c r="K15">
-        <v>1.034248713812406</v>
+        <v>1.033973491367339</v>
       </c>
       <c r="L15">
-        <v>1.018611670124579</v>
+        <v>1.018701072999281</v>
       </c>
       <c r="M15">
-        <v>1.041977661878343</v>
+        <v>1.041838536745692</v>
       </c>
       <c r="N15">
-        <v>1.012205634436942</v>
+        <v>1.014223727024848</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.043091599791742</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.042981635739134</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021505352058644</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9974993381790749</v>
+        <v>0.9974689545181981</v>
       </c>
       <c r="D16">
-        <v>1.021221204618488</v>
+        <v>1.020798657646701</v>
       </c>
       <c r="E16">
-        <v>1.0054859691714</v>
+        <v>1.005465171222353</v>
       </c>
       <c r="F16">
-        <v>1.029100355448412</v>
+        <v>1.028853816769416</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.044838676102921</v>
+        <v>1.044699624704714</v>
       </c>
       <c r="J16">
-        <v>1.025735419473636</v>
+        <v>1.025706246043016</v>
       </c>
       <c r="K16">
-        <v>1.035182006065779</v>
+        <v>1.034766666884896</v>
       </c>
       <c r="L16">
-        <v>1.019720485411009</v>
+        <v>1.019700056598722</v>
       </c>
       <c r="M16">
-        <v>1.042928151801135</v>
+        <v>1.042685735064478</v>
       </c>
       <c r="N16">
-        <v>1.012537939228798</v>
+        <v>1.014249671945193</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.04380423521808</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.043612624403774</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021658468075191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9987858721328755</v>
+        <v>0.9986933511347745</v>
       </c>
       <c r="D17">
-        <v>1.022047063999538</v>
+        <v>1.021553102960246</v>
       </c>
       <c r="E17">
-        <v>1.006453498781418</v>
+        <v>1.006378825079259</v>
       </c>
       <c r="F17">
-        <v>1.029847796413958</v>
+        <v>1.029549088028946</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.04509891024103</v>
+        <v>1.044922914244513</v>
       </c>
       <c r="J17">
-        <v>1.026290787571185</v>
+        <v>1.026201834701276</v>
       </c>
       <c r="K17">
-        <v>1.035679264204538</v>
+        <v>1.035193494805843</v>
       </c>
       <c r="L17">
-        <v>1.020349313109147</v>
+        <v>1.020275927206442</v>
       </c>
       <c r="M17">
-        <v>1.043351970973528</v>
+        <v>1.043058119102427</v>
       </c>
       <c r="N17">
-        <v>1.012714857770857</v>
+        <v>1.014281446135451</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.044010497911084</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.043778208757623</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021732197822815</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9994191714898869</v>
+        <v>0.9993073684871552</v>
       </c>
       <c r="D18">
-        <v>1.022387587718355</v>
+        <v>1.02187114945667</v>
       </c>
       <c r="E18">
-        <v>1.006914227383949</v>
+        <v>1.006823280315931</v>
       </c>
       <c r="F18">
-        <v>1.02999974599852</v>
+        <v>1.029684690884583</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.045166625403193</v>
+        <v>1.044979840949914</v>
       </c>
       <c r="J18">
-        <v>1.026504139799069</v>
+        <v>1.026396568168017</v>
       </c>
       <c r="K18">
-        <v>1.035830756547509</v>
+        <v>1.035322743524377</v>
       </c>
       <c r="L18">
-        <v>1.020614670091266</v>
+        <v>1.020525265362729</v>
       </c>
       <c r="M18">
-        <v>1.043319985742911</v>
+        <v>1.043009972234439</v>
       </c>
       <c r="N18">
-        <v>1.012770429847847</v>
+        <v>1.014281187891084</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.043748142144817</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.04350302642159</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021738287236359</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9994539604449463</v>
+        <v>0.9993568248635799</v>
       </c>
       <c r="D19">
-        <v>1.022280264623684</v>
+        <v>1.021782343346361</v>
       </c>
       <c r="E19">
-        <v>1.006909665689115</v>
+        <v>1.006832200831679</v>
       </c>
       <c r="F19">
-        <v>1.029600267067792</v>
+        <v>1.029298497586909</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.045057731661532</v>
+        <v>1.044881609627801</v>
       </c>
       <c r="J19">
-        <v>1.026402864400444</v>
+        <v>1.026309383140286</v>
       </c>
       <c r="K19">
-        <v>1.03566264067804</v>
+        <v>1.035172801206894</v>
       </c>
       <c r="L19">
-        <v>1.020546276407913</v>
+        <v>1.020470118203074</v>
       </c>
       <c r="M19">
-        <v>1.042864987650071</v>
+        <v>1.042568026168222</v>
       </c>
       <c r="N19">
-        <v>1.012715984962114</v>
+        <v>1.014231848562925</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.043063809530281</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.042828937227911</v>
+      </c>
+      <c r="S19">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T19">
+        <v>1.021681300373239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,93 +1447,111 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9978226143407704</v>
+        <v>0.9978313362866473</v>
       </c>
       <c r="D20">
-        <v>1.020940139783839</v>
+        <v>1.020571626576939</v>
       </c>
       <c r="E20">
-        <v>1.005612011025205</v>
+        <v>1.005628075177964</v>
       </c>
       <c r="F20">
-        <v>1.027717681168867</v>
+        <v>1.027509444473212</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.044469560425428</v>
+        <v>1.044362143822084</v>
       </c>
       <c r="J20">
-        <v>1.025437729352627</v>
+        <v>1.025446113009856</v>
       </c>
       <c r="K20">
-        <v>1.034624511403271</v>
+        <v>1.03426214300233</v>
       </c>
       <c r="L20">
-        <v>1.01955689259317</v>
+        <v>1.019572678347807</v>
       </c>
       <c r="M20">
-        <v>1.041290050413257</v>
+        <v>1.041085226648233</v>
       </c>
       <c r="N20">
-        <v>1.012360198442139</v>
+        <v>1.014039878603304</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.04129144418769</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.041129348057695</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021454538170101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9937573826790406</v>
+        <v>0.9940255222737205</v>
       </c>
       <c r="D21">
-        <v>1.01815604258573</v>
+        <v>1.018072671776296</v>
       </c>
       <c r="E21">
-        <v>1.002513883643952</v>
+        <v>1.002757778102718</v>
       </c>
       <c r="F21">
-        <v>1.024801764644891</v>
+        <v>1.024805009355609</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.043479192539853</v>
+        <v>1.043526002152858</v>
       </c>
       <c r="J21">
-        <v>1.023518443854879</v>
+        <v>1.023775175254972</v>
       </c>
       <c r="K21">
-        <v>1.032801418268486</v>
+        <v>1.032719554711347</v>
       </c>
       <c r="L21">
-        <v>1.01744778573261</v>
+        <v>1.017687091215476</v>
       </c>
       <c r="M21">
-        <v>1.039328016802763</v>
+        <v>1.039331203842251</v>
       </c>
       <c r="N21">
-        <v>1.011710566468015</v>
+        <v>1.014005433934902</v>
       </c>
       <c r="O21">
-        <v>1.03</v>
+        <v>1.030000000000001</v>
       </c>
       <c r="P21">
-        <v>1.039697877307752</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.039700399638628</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021145347094478</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9911771951349808</v>
+        <v>0.991608328562128</v>
       </c>
       <c r="D22">
-        <v>1.016405907151477</v>
+        <v>1.016501744841828</v>
       </c>
       <c r="E22">
-        <v>1.00055755274129</v>
+        <v>1.00094451058705</v>
       </c>
       <c r="F22">
-        <v>1.022996309883349</v>
+        <v>1.023132628440831</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.042853925958547</v>
+        <v>1.042997562995752</v>
       </c>
       <c r="J22">
-        <v>1.022309574390367</v>
+        <v>1.022721310827313</v>
       </c>
       <c r="K22">
-        <v>1.031659218379727</v>
+        <v>1.031753237018604</v>
       </c>
       <c r="L22">
-        <v>1.016117972488819</v>
+        <v>1.016497279730605</v>
       </c>
       <c r="M22">
-        <v>1.038125568030665</v>
+        <v>1.038259342639058</v>
       </c>
       <c r="N22">
-        <v>1.011302778687511</v>
+        <v>1.013979229088368</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.038746218035113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.038852091918931</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020951692072333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9925493675828927</v>
+        <v>0.9928833721476085</v>
       </c>
       <c r="D23">
-        <v>1.017336142681822</v>
+        <v>1.01732872011069</v>
       </c>
       <c r="E23">
-        <v>1.001597245623928</v>
+        <v>1.001898766056774</v>
       </c>
       <c r="F23">
-        <v>1.023955711245397</v>
+        <v>1.024014692713157</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.043187090446866</v>
+        <v>1.043274014909392</v>
       </c>
       <c r="J23">
-        <v>1.022952553303809</v>
+        <v>1.023271966166246</v>
       </c>
       <c r="K23">
-        <v>1.032266770841549</v>
+        <v>1.032259485594246</v>
       </c>
       <c r="L23">
-        <v>1.016825047482286</v>
+        <v>1.017120759870748</v>
       </c>
       <c r="M23">
-        <v>1.038764903113355</v>
+        <v>1.038822811745421</v>
       </c>
       <c r="N23">
-        <v>1.011519679271989</v>
+        <v>1.013951681792484</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.039252209943333</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.039298040821009</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021052473645823</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9978564412375071</v>
+        <v>0.997865447456874</v>
       </c>
       <c r="D24">
-        <v>1.020944756958822</v>
+        <v>1.020576863507654</v>
       </c>
       <c r="E24">
-        <v>1.005633621372962</v>
+        <v>1.005650008026592</v>
       </c>
       <c r="F24">
-        <v>1.027682674566521</v>
+        <v>1.027474850845401</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.044461428539093</v>
+        <v>1.044354429686514</v>
       </c>
       <c r="J24">
-        <v>1.025437256120573</v>
+        <v>1.025445913549949</v>
       </c>
       <c r="K24">
-        <v>1.034613778789073</v>
+        <v>1.034252011871352</v>
       </c>
       <c r="L24">
-        <v>1.019562521362071</v>
+        <v>1.019578624409984</v>
       </c>
       <c r="M24">
-        <v>1.041240487163446</v>
+        <v>1.041036065543821</v>
       </c>
       <c r="N24">
-        <v>1.012357751428433</v>
+        <v>1.014034240676557</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.041211469466731</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.041049683602242</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021448900299552</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.003828982389889</v>
+        <v>1.003614071580734</v>
       </c>
       <c r="D25">
-        <v>1.025026251422272</v>
+        <v>1.02435911429464</v>
       </c>
       <c r="E25">
-        <v>1.010205859011826</v>
+        <v>1.010027182631087</v>
       </c>
       <c r="F25">
-        <v>1.031908680910632</v>
+        <v>1.031488765585231</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.045865240681529</v>
+        <v>1.045609061542876</v>
       </c>
       <c r="J25">
-        <v>1.028228169561727</v>
+        <v>1.028020416956251</v>
       </c>
       <c r="K25">
-        <v>1.037248103249743</v>
+        <v>1.036590698882491</v>
       </c>
       <c r="L25">
-        <v>1.022647781440429</v>
+        <v>1.022471808446909</v>
       </c>
       <c r="M25">
-        <v>1.04403105616175</v>
+        <v>1.043617162016557</v>
       </c>
       <c r="N25">
-        <v>1.013298821151786</v>
+        <v>1.014676515201258</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.043420012183802</v>
+        <v>1.043092443964981</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021914959914393</v>
       </c>
     </row>
   </sheetData>
